--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="468">
   <si>
     <t xml:space="preserve">Questions by Love Babbar:</t>
   </si>
@@ -1414,7 +1414,16 @@
     <t xml:space="preserve">Calculate square of a number without using *, / and pow()</t>
   </si>
   <si>
-    <t xml:space="preserve">Power Set</t>
+    <t xml:space="preserve">Power Set (This is recursion)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bit Manipulation with recursion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.interviewbit.com/problems/xor-ing-the-subarrays/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.interviewbit.com/problems/single-number-ii/</t>
   </si>
 </sst>
 </file>
@@ -1502,7 +1511,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1518,13 +1527,19 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FF993300"/>
+        <bgColor rgb="FFF10D0C"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00A933"/>
         <bgColor rgb="FF008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF10D0C"/>
+        <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -1565,7 +1580,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1619,6 +1634,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1686,7 +1709,7 @@
       <rgbColor rgb="FF00A933"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FFF10D0C"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
@@ -1700,13 +1723,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C481"/>
+  <dimension ref="A1:C483"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A457" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C476" activeCellId="0" sqref="C476"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A463" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B481" activeCellId="0" sqref="B481"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.203125" defaultRowHeight="15.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.22265625" defaultRowHeight="15.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="123"/>
@@ -6668,12 +6691,12 @@
     </row>
     <row r="470" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B470" s="10"/>
-      <c r="C470" s="9"/>
+      <c r="C470" s="13"/>
     </row>
     <row r="471" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="6"/>
       <c r="B471" s="10"/>
-      <c r="C471" s="9"/>
+      <c r="C471" s="13"/>
     </row>
     <row r="472" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="6" t="s">
@@ -6719,36 +6742,36 @@
         <v>5</v>
       </c>
     </row>
-    <row r="476" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="476" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="6" t="s">
         <v>454</v>
       </c>
       <c r="B476" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="C476" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="477" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C476" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="477" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="6" t="s">
         <v>454</v>
       </c>
       <c r="B477" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="C477" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="478" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C477" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="478" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="6" t="s">
         <v>454</v>
       </c>
       <c r="B478" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="C478" s="9" t="s">
+      <c r="C478" s="13" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6759,7 +6782,7 @@
       <c r="B479" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="C479" s="9" t="s">
+      <c r="C479" s="13" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6770,11 +6793,11 @@
       <c r="B480" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="C480" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="481" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C480" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="481" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="6" t="s">
         <v>454</v>
       </c>
@@ -6782,6 +6805,28 @@
         <v>464</v>
       </c>
       <c r="C481" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="482" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A482" s="14" t="s">
+        <v>465</v>
+      </c>
+      <c r="B482" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="C482" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="483" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A483" s="14" t="s">
+        <v>465</v>
+      </c>
+      <c r="B483" s="0" t="s">
+        <v>467</v>
+      </c>
+      <c r="C483" s="9" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7232,7 +7277,8 @@
     <hyperlink ref="B478" r:id="rId443" display="Copy set bits in a range"/>
     <hyperlink ref="B479" r:id="rId444" display="Divide two integers without using multiplication, division and mod operator"/>
     <hyperlink ref="B480" r:id="rId445" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." display="Calculate square of a number without using *, / and pow()"/>
-    <hyperlink ref="B481" r:id="rId446" display="Power Set"/>
+    <hyperlink ref="B481" r:id="rId446" display="Power Set (This is recursion)"/>
+    <hyperlink ref="B483" r:id="rId447" display="https://www.interviewbit.com/problems/single-number-ii/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1357" uniqueCount="468">
   <si>
     <t xml:space="preserve">Questions by Love Babbar:</t>
   </si>
@@ -37,13 +37,13 @@
     <t xml:space="preserve">Done [yes or no] </t>
   </si>
   <si>
+    <t xml:space="preserve">Array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reverse the array</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;-&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reverse the array</t>
   </si>
   <si>
     <t xml:space="preserve">Find the maximum and minimum element in an array</t>
@@ -1511,7 +1511,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1521,13 +1521,19 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF70AD47"/>
-        <bgColor rgb="FF99CC00"/>
+        <bgColor rgb="FF81D41A"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor rgb="FFF10D0C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF81D41A"/>
+        <bgColor rgb="FF70AD47"/>
       </patternFill>
     </fill>
     <fill>
@@ -1580,7 +1586,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1621,6 +1627,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1633,7 +1643,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1641,7 +1651,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1699,7 +1709,7 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FF81D41A"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
@@ -1725,28 +1735,29 @@
   </sheetPr>
   <dimension ref="A1:C483"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A463" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B481" activeCellId="0" sqref="B481"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.22265625" defaultRowHeight="15.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.37890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="123"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="4" style="0" width="11.23"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1757,421 +1768,419 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="5" t="s">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>7</v>
-      </c>
       <c r="C6" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
-        <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
-        <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
-        <v>6</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
-        <v>6</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
-        <v>6</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
-        <v>6</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="s">
-        <v>6</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="6" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="s">
-        <v>6</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="6" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="s">
-        <v>6</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="6" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="s">
-        <v>6</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="6" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="s">
-        <v>6</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="6" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="s">
-        <v>6</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="6" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="s">
-        <v>6</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="6" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6" t="s">
-        <v>6</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="6" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6" t="s">
-        <v>6</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="6" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6" t="s">
-        <v>6</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="6" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="s">
-        <v>6</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="6" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="s">
-        <v>6</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="6" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6" t="s">
-        <v>6</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C25" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="6" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6" t="s">
-        <v>6</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>27</v>
       </c>
       <c r="C26" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="6" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6" t="s">
-        <v>6</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C27" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="6" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="6" t="s">
-        <v>6</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C28" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="6" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6" t="s">
-        <v>6</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C29" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="6" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="6" t="s">
-        <v>6</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C30" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="6" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="6" t="s">
-        <v>6</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>32</v>
       </c>
       <c r="C31" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="6" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="6" t="s">
-        <v>6</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C32" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="6" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="6" t="s">
-        <v>6</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>34</v>
       </c>
       <c r="C33" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="6" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="6" t="s">
-        <v>6</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>35</v>
       </c>
       <c r="C34" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="6" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="6" t="s">
-        <v>6</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C35" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="6" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="6" t="s">
-        <v>6</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C36" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="6" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="6" t="s">
-        <v>6</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>38</v>
       </c>
       <c r="C37" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="6" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="6" t="s">
-        <v>6</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>39</v>
       </c>
       <c r="C38" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="6" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="6" t="s">
-        <v>6</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C39" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="6" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="6" t="s">
-        <v>6</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C40" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="6" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="6" t="s">
-        <v>6</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>42</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="10"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="11"/>
       <c r="C42" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6"/>
-      <c r="B43" s="10"/>
+      <c r="B43" s="11"/>
       <c r="C43" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="s">
         <v>43</v>
       </c>
@@ -2179,10 +2188,10 @@
         <v>44</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="s">
         <v>43</v>
       </c>
@@ -2190,10 +2199,10 @@
         <v>45</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="s">
         <v>43</v>
       </c>
@@ -2201,10 +2210,10 @@
         <v>46</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="s">
         <v>43</v>
       </c>
@@ -2212,10 +2221,10 @@
         <v>47</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="s">
         <v>43</v>
       </c>
@@ -2223,10 +2232,10 @@
         <v>48</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="s">
         <v>43</v>
       </c>
@@ -2234,10 +2243,10 @@
         <v>49</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="s">
         <v>43</v>
       </c>
@@ -2245,10 +2254,10 @@
         <v>50</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="s">
         <v>43</v>
       </c>
@@ -2256,10 +2265,10 @@
         <v>51</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="s">
         <v>43</v>
       </c>
@@ -2267,10 +2276,10 @@
         <v>52</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="s">
         <v>43</v>
       </c>
@@ -2278,18 +2287,18 @@
         <v>53</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C54" s="11"/>
-    </row>
-    <row r="55" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C54" s="12"/>
+    </row>
+    <row r="55" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="6"/>
-      <c r="B55" s="10"/>
+      <c r="B55" s="11"/>
       <c r="C55" s="9"/>
     </row>
-    <row r="56" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="s">
         <v>54</v>
       </c>
@@ -2297,10 +2306,10 @@
         <v>55</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="s">
         <v>54</v>
       </c>
@@ -2308,10 +2317,10 @@
         <v>56</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="s">
         <v>54</v>
       </c>
@@ -2319,21 +2328,21 @@
         <v>57</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="11" t="s">
         <v>58</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="s">
         <v>54</v>
       </c>
@@ -2341,10 +2350,10 @@
         <v>59</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="s">
         <v>54</v>
       </c>
@@ -2352,10 +2361,10 @@
         <v>60</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="s">
         <v>54</v>
       </c>
@@ -2363,10 +2372,10 @@
         <v>61</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="s">
         <v>54</v>
       </c>
@@ -2374,10 +2383,10 @@
         <v>62</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="s">
         <v>54</v>
       </c>
@@ -2385,10 +2394,10 @@
         <v>63</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="s">
         <v>54</v>
       </c>
@@ -2396,10 +2405,10 @@
         <v>64</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="s">
         <v>54</v>
       </c>
@@ -2407,10 +2416,10 @@
         <v>65</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="s">
         <v>54</v>
       </c>
@@ -2418,10 +2427,10 @@
         <v>66</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="6" t="s">
         <v>54</v>
       </c>
@@ -2429,10 +2438,10 @@
         <v>67</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="6" t="s">
         <v>54</v>
       </c>
@@ -2440,10 +2449,10 @@
         <v>68</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="s">
         <v>54</v>
       </c>
@@ -2451,10 +2460,10 @@
         <v>69</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="s">
         <v>54</v>
       </c>
@@ -2462,10 +2471,10 @@
         <v>70</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="6" t="s">
         <v>54</v>
       </c>
@@ -2473,10 +2482,10 @@
         <v>71</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="6" t="s">
         <v>54</v>
       </c>
@@ -2484,10 +2493,10 @@
         <v>72</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="6" t="s">
         <v>54</v>
       </c>
@@ -2495,10 +2504,10 @@
         <v>73</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="6" t="s">
         <v>54</v>
       </c>
@@ -2506,10 +2515,10 @@
         <v>74</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="6" t="s">
         <v>54</v>
       </c>
@@ -2517,10 +2526,10 @@
         <v>75</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="6" t="s">
         <v>54</v>
       </c>
@@ -2528,10 +2537,10 @@
         <v>76</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="6" t="s">
         <v>54</v>
       </c>
@@ -2539,10 +2548,10 @@
         <v>77</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="6" t="s">
         <v>54</v>
       </c>
@@ -2550,10 +2559,10 @@
         <v>78</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="6" t="s">
         <v>54</v>
       </c>
@@ -2561,10 +2570,10 @@
         <v>79</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="6" t="s">
         <v>54</v>
       </c>
@@ -2572,10 +2581,10 @@
         <v>80</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="6" t="s">
         <v>54</v>
       </c>
@@ -2583,10 +2592,10 @@
         <v>81</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="6" t="s">
         <v>54</v>
       </c>
@@ -2594,10 +2603,10 @@
         <v>82</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="6" t="s">
         <v>54</v>
       </c>
@@ -2605,10 +2614,10 @@
         <v>83</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="6" t="s">
         <v>54</v>
       </c>
@@ -2616,10 +2625,10 @@
         <v>84</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="6" t="s">
         <v>54</v>
       </c>
@@ -2627,10 +2636,10 @@
         <v>85</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="6" t="s">
         <v>54</v>
       </c>
@@ -2638,10 +2647,10 @@
         <v>86</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="6" t="s">
         <v>54</v>
       </c>
@@ -2649,10 +2658,10 @@
         <v>87</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="6" t="s">
         <v>54</v>
       </c>
@@ -2660,10 +2669,10 @@
         <v>88</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="6" t="s">
         <v>54</v>
       </c>
@@ -2671,10 +2680,10 @@
         <v>89</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="6" t="s">
         <v>54</v>
       </c>
@@ -2682,10 +2691,10 @@
         <v>90</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="6" t="s">
         <v>54</v>
       </c>
@@ -2693,10 +2702,10 @@
         <v>91</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="6" t="s">
         <v>54</v>
       </c>
@@ -2704,10 +2713,10 @@
         <v>92</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="6" t="s">
         <v>54</v>
       </c>
@@ -2715,10 +2724,10 @@
         <v>93</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="6" t="s">
         <v>54</v>
       </c>
@@ -2726,10 +2735,10 @@
         <v>94</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="6" t="s">
         <v>54</v>
       </c>
@@ -2737,10 +2746,10 @@
         <v>95</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="6" t="s">
         <v>54</v>
       </c>
@@ -2748,10 +2757,10 @@
         <v>96</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="6" t="s">
         <v>54</v>
       </c>
@@ -2759,18 +2768,18 @@
         <v>97</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C99" s="11"/>
-    </row>
-    <row r="100" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C99" s="12"/>
+    </row>
+    <row r="100" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="6"/>
-      <c r="B100" s="10"/>
+      <c r="B100" s="11"/>
       <c r="C100" s="9"/>
     </row>
-    <row r="101" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="6" t="s">
         <v>98</v>
       </c>
@@ -2778,10 +2787,10 @@
         <v>99</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="6" t="s">
         <v>98</v>
       </c>
@@ -2789,10 +2798,10 @@
         <v>100</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="6" t="s">
         <v>98</v>
       </c>
@@ -2800,10 +2809,10 @@
         <v>101</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="6" t="s">
         <v>98</v>
       </c>
@@ -2811,10 +2820,10 @@
         <v>102</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="6" t="s">
         <v>98</v>
       </c>
@@ -2822,10 +2831,10 @@
         <v>103</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="6" t="s">
         <v>98</v>
       </c>
@@ -2833,10 +2842,10 @@
         <v>104</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="6" t="s">
         <v>98</v>
       </c>
@@ -2844,10 +2853,10 @@
         <v>105</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="6" t="s">
         <v>98</v>
       </c>
@@ -2855,10 +2864,10 @@
         <v>106</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="6" t="s">
         <v>98</v>
       </c>
@@ -2866,10 +2875,10 @@
         <v>107</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="6" t="s">
         <v>98</v>
       </c>
@@ -2877,10 +2886,10 @@
         <v>108</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="6" t="s">
         <v>98</v>
       </c>
@@ -2888,10 +2897,10 @@
         <v>109</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="6" t="s">
         <v>98</v>
       </c>
@@ -2899,10 +2908,10 @@
         <v>110</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="6" t="s">
         <v>98</v>
       </c>
@@ -2910,10 +2919,10 @@
         <v>111</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="6" t="s">
         <v>98</v>
       </c>
@@ -2921,10 +2930,10 @@
         <v>112</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="6" t="s">
         <v>98</v>
       </c>
@@ -2932,10 +2941,10 @@
         <v>113</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="6" t="s">
         <v>98</v>
       </c>
@@ -2943,10 +2952,10 @@
         <v>114</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="6" t="s">
         <v>98</v>
       </c>
@@ -2954,10 +2963,10 @@
         <v>115</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="6" t="s">
         <v>98</v>
       </c>
@@ -2965,10 +2974,10 @@
         <v>116</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="6" t="s">
         <v>98</v>
       </c>
@@ -2976,10 +2985,10 @@
         <v>117</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="6" t="s">
         <v>98</v>
       </c>
@@ -2987,10 +2996,10 @@
         <v>118</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="6" t="s">
         <v>98</v>
       </c>
@@ -2998,10 +3007,10 @@
         <v>119</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="6" t="s">
         <v>98</v>
       </c>
@@ -3009,10 +3018,10 @@
         <v>120</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="6" t="s">
         <v>98</v>
       </c>
@@ -3020,10 +3029,10 @@
         <v>121</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="6" t="s">
         <v>98</v>
       </c>
@@ -3031,10 +3040,10 @@
         <v>122</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="6" t="s">
         <v>98</v>
       </c>
@@ -3042,10 +3051,10 @@
         <v>123</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="6" t="s">
         <v>98</v>
       </c>
@@ -3053,10 +3062,10 @@
         <v>124</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="6" t="s">
         <v>98</v>
       </c>
@@ -3064,10 +3073,10 @@
         <v>125</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="6" t="s">
         <v>98</v>
       </c>
@@ -3075,10 +3084,10 @@
         <v>126</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="6" t="s">
         <v>98</v>
       </c>
@@ -3086,10 +3095,10 @@
         <v>127</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="6" t="s">
         <v>98</v>
       </c>
@@ -3097,10 +3106,10 @@
         <v>128</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="6" t="s">
         <v>98</v>
       </c>
@@ -3108,10 +3117,10 @@
         <v>129</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="6" t="s">
         <v>98</v>
       </c>
@@ -3119,10 +3128,10 @@
         <v>130</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="6" t="s">
         <v>98</v>
       </c>
@@ -3130,10 +3139,10 @@
         <v>131</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="6" t="s">
         <v>98</v>
       </c>
@@ -3141,10 +3150,10 @@
         <v>132</v>
       </c>
       <c r="C134" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="6" t="s">
         <v>98</v>
       </c>
@@ -3152,10 +3161,10 @@
         <v>133</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="6" t="s">
         <v>98</v>
       </c>
@@ -3163,17 +3172,17 @@
         <v>134</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C137" s="11"/>
-    </row>
-    <row r="138" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B138" s="10"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C137" s="12"/>
+    </row>
+    <row r="138" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B138" s="11"/>
       <c r="C138" s="9"/>
     </row>
-    <row r="139" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="6" t="s">
         <v>135</v>
       </c>
@@ -3181,10 +3190,10 @@
         <v>136</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="6" t="s">
         <v>135</v>
       </c>
@@ -3192,10 +3201,10 @@
         <v>137</v>
       </c>
       <c r="C140" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="6" t="s">
         <v>135</v>
       </c>
@@ -3203,10 +3212,10 @@
         <v>138</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="6" t="s">
         <v>135</v>
       </c>
@@ -3214,10 +3223,10 @@
         <v>139</v>
       </c>
       <c r="C142" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="6" t="s">
         <v>135</v>
       </c>
@@ -3225,10 +3234,10 @@
         <v>140</v>
       </c>
       <c r="C143" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="6" t="s">
         <v>135</v>
       </c>
@@ -3236,10 +3245,10 @@
         <v>141</v>
       </c>
       <c r="C144" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="6" t="s">
         <v>135</v>
       </c>
@@ -3247,10 +3256,10 @@
         <v>142</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="6" t="s">
         <v>135</v>
       </c>
@@ -3258,10 +3267,10 @@
         <v>143</v>
       </c>
       <c r="C146" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="6" t="s">
         <v>135</v>
       </c>
@@ -3269,10 +3278,10 @@
         <v>144</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="6" t="s">
         <v>135</v>
       </c>
@@ -3280,10 +3289,10 @@
         <v>145</v>
       </c>
       <c r="C148" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="6" t="s">
         <v>135</v>
       </c>
@@ -3291,10 +3300,10 @@
         <v>146</v>
       </c>
       <c r="C149" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="6" t="s">
         <v>135</v>
       </c>
@@ -3302,10 +3311,10 @@
         <v>147</v>
       </c>
       <c r="C150" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="6" t="s">
         <v>135</v>
       </c>
@@ -3313,10 +3322,10 @@
         <v>148</v>
       </c>
       <c r="C151" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="6" t="s">
         <v>135</v>
       </c>
@@ -3324,10 +3333,10 @@
         <v>149</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="153" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="6" t="s">
         <v>135</v>
       </c>
@@ -3335,10 +3344,10 @@
         <v>150</v>
       </c>
       <c r="C153" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="6" t="s">
         <v>135</v>
       </c>
@@ -3346,10 +3355,10 @@
         <v>151</v>
       </c>
       <c r="C154" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="6" t="s">
         <v>135</v>
       </c>
@@ -3357,10 +3366,10 @@
         <v>152</v>
       </c>
       <c r="C155" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="6" t="s">
         <v>135</v>
       </c>
@@ -3368,10 +3377,10 @@
         <v>153</v>
       </c>
       <c r="C156" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="6" t="s">
         <v>135</v>
       </c>
@@ -3379,10 +3388,10 @@
         <v>154</v>
       </c>
       <c r="C157" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="6" t="s">
         <v>135</v>
       </c>
@@ -3390,10 +3399,10 @@
         <v>155</v>
       </c>
       <c r="C158" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="6" t="s">
         <v>135</v>
       </c>
@@ -3401,10 +3410,10 @@
         <v>156</v>
       </c>
       <c r="C159" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="160" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="6" t="s">
         <v>135</v>
       </c>
@@ -3412,10 +3421,10 @@
         <v>157</v>
       </c>
       <c r="C160" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="161" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="6" t="s">
         <v>135</v>
       </c>
@@ -3423,10 +3432,10 @@
         <v>158</v>
       </c>
       <c r="C161" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="162" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="6" t="s">
         <v>135</v>
       </c>
@@ -3434,10 +3443,10 @@
         <v>159</v>
       </c>
       <c r="C162" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="6" t="s">
         <v>135</v>
       </c>
@@ -3445,32 +3454,32 @@
         <v>160</v>
       </c>
       <c r="C163" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="B164" s="10" t="s">
+      <c r="B164" s="11" t="s">
         <v>161</v>
       </c>
       <c r="C164" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="165" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="B165" s="10" t="s">
+      <c r="B165" s="11" t="s">
         <v>162</v>
       </c>
       <c r="C165" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="166" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="6" t="s">
         <v>135</v>
       </c>
@@ -3478,10 +3487,10 @@
         <v>163</v>
       </c>
       <c r="C166" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="167" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="6" t="s">
         <v>135</v>
       </c>
@@ -3489,10 +3498,10 @@
         <v>164</v>
       </c>
       <c r="C167" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="168" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="6" t="s">
         <v>135</v>
       </c>
@@ -3500,10 +3509,10 @@
         <v>165</v>
       </c>
       <c r="C168" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="169" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="6" t="s">
         <v>135</v>
       </c>
@@ -3511,10 +3520,10 @@
         <v>166</v>
       </c>
       <c r="C169" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="170" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="6" t="s">
         <v>135</v>
       </c>
@@ -3522,10 +3531,10 @@
         <v>167</v>
       </c>
       <c r="C170" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="6" t="s">
         <v>135</v>
       </c>
@@ -3533,10 +3542,10 @@
         <v>168</v>
       </c>
       <c r="C171" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="172" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="6" t="s">
         <v>135</v>
       </c>
@@ -3544,10 +3553,10 @@
         <v>169</v>
       </c>
       <c r="C172" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="173" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="6" t="s">
         <v>135</v>
       </c>
@@ -3555,10 +3564,10 @@
         <v>170</v>
       </c>
       <c r="C173" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="174" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="6" t="s">
         <v>135</v>
       </c>
@@ -3566,17 +3575,17 @@
         <v>171</v>
       </c>
       <c r="C174" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="175" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C175" s="11"/>
-    </row>
-    <row r="176" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B176" s="10"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C175" s="12"/>
+    </row>
+    <row r="176" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B176" s="11"/>
       <c r="C176" s="9"/>
     </row>
-    <row r="177" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="6" t="s">
         <v>172</v>
       </c>
@@ -3584,10 +3593,10 @@
         <v>173</v>
       </c>
       <c r="C177" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="178" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="6" t="s">
         <v>172</v>
       </c>
@@ -3595,10 +3604,10 @@
         <v>174</v>
       </c>
       <c r="C178" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="179" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="6" t="s">
         <v>172</v>
       </c>
@@ -3606,10 +3615,10 @@
         <v>175</v>
       </c>
       <c r="C179" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="180" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="6" t="s">
         <v>172</v>
       </c>
@@ -3617,10 +3626,10 @@
         <v>176</v>
       </c>
       <c r="C180" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="181" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="6" t="s">
         <v>172</v>
       </c>
@@ -3628,10 +3637,10 @@
         <v>177</v>
       </c>
       <c r="C181" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="182" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="6" t="s">
         <v>172</v>
       </c>
@@ -3639,10 +3648,10 @@
         <v>178</v>
       </c>
       <c r="C182" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="183" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="6" t="s">
         <v>172</v>
       </c>
@@ -3650,10 +3659,10 @@
         <v>179</v>
       </c>
       <c r="C183" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="184" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="6" t="s">
         <v>172</v>
       </c>
@@ -3661,10 +3670,10 @@
         <v>180</v>
       </c>
       <c r="C184" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="185" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="6" t="s">
         <v>172</v>
       </c>
@@ -3672,10 +3681,10 @@
         <v>181</v>
       </c>
       <c r="C185" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="186" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="6" t="s">
         <v>172</v>
       </c>
@@ -3683,10 +3692,10 @@
         <v>182</v>
       </c>
       <c r="C186" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="187" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="6" t="s">
         <v>172</v>
       </c>
@@ -3694,10 +3703,10 @@
         <v>183</v>
       </c>
       <c r="C187" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="188" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="6" t="s">
         <v>172</v>
       </c>
@@ -3705,10 +3714,10 @@
         <v>184</v>
       </c>
       <c r="C188" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="189" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="6" t="s">
         <v>172</v>
       </c>
@@ -3716,10 +3725,10 @@
         <v>185</v>
       </c>
       <c r="C189" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="190" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="6" t="s">
         <v>172</v>
       </c>
@@ -3727,10 +3736,10 @@
         <v>186</v>
       </c>
       <c r="C190" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="191" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="6" t="s">
         <v>172</v>
       </c>
@@ -3738,10 +3747,10 @@
         <v>187</v>
       </c>
       <c r="C191" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="192" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="6" t="s">
         <v>172</v>
       </c>
@@ -3749,10 +3758,10 @@
         <v>188</v>
       </c>
       <c r="C192" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="193" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="6" t="s">
         <v>172</v>
       </c>
@@ -3760,10 +3769,10 @@
         <v>189</v>
       </c>
       <c r="C193" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="194" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="6" t="s">
         <v>172</v>
       </c>
@@ -3771,10 +3780,10 @@
         <v>190</v>
       </c>
       <c r="C194" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="195" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="6" t="s">
         <v>172</v>
       </c>
@@ -3782,10 +3791,10 @@
         <v>191</v>
       </c>
       <c r="C195" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="196" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="6" t="s">
         <v>172</v>
       </c>
@@ -3793,10 +3802,10 @@
         <v>192</v>
       </c>
       <c r="C196" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="197" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="6" t="s">
         <v>172</v>
       </c>
@@ -3804,10 +3813,10 @@
         <v>193</v>
       </c>
       <c r="C197" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="198" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="6" t="s">
         <v>172</v>
       </c>
@@ -3815,10 +3824,10 @@
         <v>194</v>
       </c>
       <c r="C198" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="199" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="6" t="s">
         <v>172</v>
       </c>
@@ -3826,10 +3835,10 @@
         <v>195</v>
       </c>
       <c r="C199" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="200" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="6" t="s">
         <v>172</v>
       </c>
@@ -3837,10 +3846,10 @@
         <v>196</v>
       </c>
       <c r="C200" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="201" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="6" t="s">
         <v>172</v>
       </c>
@@ -3848,10 +3857,10 @@
         <v>197</v>
       </c>
       <c r="C201" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="202" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="6" t="s">
         <v>172</v>
       </c>
@@ -3859,10 +3868,10 @@
         <v>198</v>
       </c>
       <c r="C202" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="203" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="6" t="s">
         <v>172</v>
       </c>
@@ -3870,10 +3879,10 @@
         <v>199</v>
       </c>
       <c r="C203" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="204" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="6" t="s">
         <v>172</v>
       </c>
@@ -3881,10 +3890,10 @@
         <v>200</v>
       </c>
       <c r="C204" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="205" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="6" t="s">
         <v>172</v>
       </c>
@@ -3892,10 +3901,10 @@
         <v>201</v>
       </c>
       <c r="C205" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="206" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="6" t="s">
         <v>172</v>
       </c>
@@ -3903,10 +3912,10 @@
         <v>202</v>
       </c>
       <c r="C206" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="207" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="6" t="s">
         <v>172</v>
       </c>
@@ -3914,10 +3923,10 @@
         <v>203</v>
       </c>
       <c r="C207" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="208" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="6" t="s">
         <v>172</v>
       </c>
@@ -3925,10 +3934,10 @@
         <v>204</v>
       </c>
       <c r="C208" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="209" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="6" t="s">
         <v>172</v>
       </c>
@@ -3936,10 +3945,10 @@
         <v>205</v>
       </c>
       <c r="C209" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="210" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="6" t="s">
         <v>172</v>
       </c>
@@ -3947,10 +3956,10 @@
         <v>206</v>
       </c>
       <c r="C210" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="211" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="6" t="s">
         <v>172</v>
       </c>
@@ -3958,20 +3967,20 @@
         <v>207</v>
       </c>
       <c r="C211" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="212" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="6"/>
-      <c r="B212" s="10"/>
+      <c r="B212" s="11"/>
       <c r="C212" s="9"/>
     </row>
-    <row r="213" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="6"/>
-      <c r="B213" s="10"/>
+      <c r="B213" s="11"/>
       <c r="C213" s="9"/>
     </row>
-    <row r="214" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="6" t="s">
         <v>208</v>
       </c>
@@ -3979,10 +3988,10 @@
         <v>209</v>
       </c>
       <c r="C214" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="215" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="6" t="s">
         <v>208</v>
       </c>
@@ -3990,10 +3999,10 @@
         <v>210</v>
       </c>
       <c r="C215" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="216" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="6" t="s">
         <v>208</v>
       </c>
@@ -4001,10 +4010,10 @@
         <v>211</v>
       </c>
       <c r="C216" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="217" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="6" t="s">
         <v>208</v>
       </c>
@@ -4012,10 +4021,10 @@
         <v>212</v>
       </c>
       <c r="C217" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="218" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="6" t="s">
         <v>208</v>
       </c>
@@ -4023,10 +4032,10 @@
         <v>213</v>
       </c>
       <c r="C218" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="219" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="6" t="s">
         <v>208</v>
       </c>
@@ -4034,21 +4043,21 @@
         <v>214</v>
       </c>
       <c r="C219" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="220" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="B220" s="12" t="s">
+      <c r="B220" s="13" t="s">
         <v>215</v>
       </c>
       <c r="C220" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="221" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="6" t="s">
         <v>208</v>
       </c>
@@ -4056,10 +4065,10 @@
         <v>216</v>
       </c>
       <c r="C221" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="222" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="6" t="s">
         <v>208</v>
       </c>
@@ -4067,10 +4076,10 @@
         <v>217</v>
       </c>
       <c r="C222" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="223" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="6" t="s">
         <v>208</v>
       </c>
@@ -4078,10 +4087,10 @@
         <v>218</v>
       </c>
       <c r="C223" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="224" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="6" t="s">
         <v>208</v>
       </c>
@@ -4089,10 +4098,10 @@
         <v>219</v>
       </c>
       <c r="C224" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="225" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="6" t="s">
         <v>208</v>
       </c>
@@ -4100,10 +4109,10 @@
         <v>220</v>
       </c>
       <c r="C225" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="226" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="6" t="s">
         <v>208</v>
       </c>
@@ -4111,10 +4120,10 @@
         <v>221</v>
       </c>
       <c r="C226" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="227" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="6" t="s">
         <v>208</v>
       </c>
@@ -4122,10 +4131,10 @@
         <v>222</v>
       </c>
       <c r="C227" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="228" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="6" t="s">
         <v>208</v>
       </c>
@@ -4133,10 +4142,10 @@
         <v>223</v>
       </c>
       <c r="C228" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="229" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="6" t="s">
         <v>208</v>
       </c>
@@ -4144,10 +4153,10 @@
         <v>224</v>
       </c>
       <c r="C229" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="230" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="6" t="s">
         <v>208</v>
       </c>
@@ -4155,10 +4164,10 @@
         <v>225</v>
       </c>
       <c r="C230" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="231" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="6" t="s">
         <v>208</v>
       </c>
@@ -4166,10 +4175,10 @@
         <v>226</v>
       </c>
       <c r="C231" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="232" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="6" t="s">
         <v>208</v>
       </c>
@@ -4177,10 +4186,10 @@
         <v>227</v>
       </c>
       <c r="C232" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="233" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="6" t="s">
         <v>208</v>
       </c>
@@ -4188,10 +4197,10 @@
         <v>228</v>
       </c>
       <c r="C233" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="234" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="6" t="s">
         <v>208</v>
       </c>
@@ -4199,10 +4208,10 @@
         <v>229</v>
       </c>
       <c r="C234" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="235" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="6" t="s">
         <v>208</v>
       </c>
@@ -4210,18 +4219,18 @@
         <v>230</v>
       </c>
       <c r="C235" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="236" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B236" s="10"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B236" s="11"/>
       <c r="C236" s="9"/>
     </row>
-    <row r="237" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B237" s="10"/>
+    <row r="237" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B237" s="11"/>
       <c r="C237" s="9"/>
     </row>
-    <row r="238" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="6" t="s">
         <v>231</v>
       </c>
@@ -4229,10 +4238,10 @@
         <v>232</v>
       </c>
       <c r="C238" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="239" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="6" t="s">
         <v>231</v>
       </c>
@@ -4240,10 +4249,10 @@
         <v>233</v>
       </c>
       <c r="C239" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="240" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="6" t="s">
         <v>231</v>
       </c>
@@ -4251,10 +4260,10 @@
         <v>234</v>
       </c>
       <c r="C240" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="241" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="6" t="s">
         <v>231</v>
       </c>
@@ -4262,10 +4271,10 @@
         <v>235</v>
       </c>
       <c r="C241" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="242" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="6" t="s">
         <v>231</v>
       </c>
@@ -4273,10 +4282,10 @@
         <v>236</v>
       </c>
       <c r="C242" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="243" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="6" t="s">
         <v>231</v>
       </c>
@@ -4284,10 +4293,10 @@
         <v>237</v>
       </c>
       <c r="C243" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="244" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="6" t="s">
         <v>231</v>
       </c>
@@ -4295,10 +4304,10 @@
         <v>238</v>
       </c>
       <c r="C244" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="245" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="6" t="s">
         <v>231</v>
       </c>
@@ -4306,10 +4315,10 @@
         <v>239</v>
       </c>
       <c r="C245" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="246" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="6" t="s">
         <v>231</v>
       </c>
@@ -4317,10 +4326,10 @@
         <v>240</v>
       </c>
       <c r="C246" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="247" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="6" t="s">
         <v>231</v>
       </c>
@@ -4328,10 +4337,10 @@
         <v>241</v>
       </c>
       <c r="C247" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="248" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="6" t="s">
         <v>231</v>
       </c>
@@ -4339,10 +4348,10 @@
         <v>242</v>
       </c>
       <c r="C248" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="249" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="6" t="s">
         <v>231</v>
       </c>
@@ -4350,10 +4359,10 @@
         <v>243</v>
       </c>
       <c r="C249" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="250" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="6" t="s">
         <v>231</v>
       </c>
@@ -4361,10 +4370,10 @@
         <v>244</v>
       </c>
       <c r="C250" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="251" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="6" t="s">
         <v>231</v>
       </c>
@@ -4372,10 +4381,10 @@
         <v>245</v>
       </c>
       <c r="C251" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="252" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="6" t="s">
         <v>231</v>
       </c>
@@ -4383,10 +4392,10 @@
         <v>246</v>
       </c>
       <c r="C252" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="253" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="6" t="s">
         <v>231</v>
       </c>
@@ -4394,10 +4403,10 @@
         <v>247</v>
       </c>
       <c r="C253" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="254" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="6" t="s">
         <v>231</v>
       </c>
@@ -4405,10 +4414,10 @@
         <v>248</v>
       </c>
       <c r="C254" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="255" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="6" t="s">
         <v>231</v>
       </c>
@@ -4416,10 +4425,10 @@
         <v>249</v>
       </c>
       <c r="C255" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="256" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="6" t="s">
         <v>231</v>
       </c>
@@ -4427,10 +4436,10 @@
         <v>250</v>
       </c>
       <c r="C256" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="257" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="6" t="s">
         <v>231</v>
       </c>
@@ -4438,10 +4447,10 @@
         <v>251</v>
       </c>
       <c r="C257" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="258" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="6" t="s">
         <v>231</v>
       </c>
@@ -4449,10 +4458,10 @@
         <v>252</v>
       </c>
       <c r="C258" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="259" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="6" t="s">
         <v>231</v>
       </c>
@@ -4460,10 +4469,10 @@
         <v>253</v>
       </c>
       <c r="C259" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="260" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="6" t="s">
         <v>231</v>
       </c>
@@ -4471,10 +4480,10 @@
         <v>254</v>
       </c>
       <c r="C260" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="261" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="6" t="s">
         <v>231</v>
       </c>
@@ -4482,10 +4491,10 @@
         <v>255</v>
       </c>
       <c r="C261" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="262" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="6" t="s">
         <v>231</v>
       </c>
@@ -4493,10 +4502,10 @@
         <v>256</v>
       </c>
       <c r="C262" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="263" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="6" t="s">
         <v>231</v>
       </c>
@@ -4504,10 +4513,10 @@
         <v>257</v>
       </c>
       <c r="C263" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="264" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="6" t="s">
         <v>231</v>
       </c>
@@ -4515,10 +4524,10 @@
         <v>258</v>
       </c>
       <c r="C264" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="265" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="6" t="s">
         <v>231</v>
       </c>
@@ -4526,10 +4535,10 @@
         <v>259</v>
       </c>
       <c r="C265" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="266" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="6" t="s">
         <v>231</v>
       </c>
@@ -4537,10 +4546,10 @@
         <v>260</v>
       </c>
       <c r="C266" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="267" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="6" t="s">
         <v>231</v>
       </c>
@@ -4548,10 +4557,10 @@
         <v>261</v>
       </c>
       <c r="C267" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="268" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="6" t="s">
         <v>231</v>
       </c>
@@ -4559,10 +4568,10 @@
         <v>262</v>
       </c>
       <c r="C268" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="269" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="6" t="s">
         <v>231</v>
       </c>
@@ -4570,10 +4579,10 @@
         <v>263</v>
       </c>
       <c r="C269" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="270" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="6" t="s">
         <v>231</v>
       </c>
@@ -4581,10 +4590,10 @@
         <v>264</v>
       </c>
       <c r="C270" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="271" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="6" t="s">
         <v>231</v>
       </c>
@@ -4592,10 +4601,10 @@
         <v>88</v>
       </c>
       <c r="C271" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="272" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="6" t="s">
         <v>231</v>
       </c>
@@ -4603,18 +4612,18 @@
         <v>265</v>
       </c>
       <c r="C272" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="273" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B273" s="10"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B273" s="11"/>
       <c r="C273" s="9"/>
     </row>
-    <row r="274" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B274" s="10"/>
+    <row r="274" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B274" s="11"/>
       <c r="C274" s="9"/>
     </row>
-    <row r="275" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="6" t="s">
         <v>266</v>
       </c>
@@ -4622,10 +4631,10 @@
         <v>267</v>
       </c>
       <c r="C275" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="276" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="6" t="s">
         <v>266</v>
       </c>
@@ -4633,10 +4642,10 @@
         <v>268</v>
       </c>
       <c r="C276" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="277" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="6" t="s">
         <v>266</v>
       </c>
@@ -4644,10 +4653,10 @@
         <v>269</v>
       </c>
       <c r="C277" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="278" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="6" t="s">
         <v>266</v>
       </c>
@@ -4655,10 +4664,10 @@
         <v>270</v>
       </c>
       <c r="C278" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="279" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="6" t="s">
         <v>266</v>
       </c>
@@ -4666,10 +4675,10 @@
         <v>271</v>
       </c>
       <c r="C279" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="280" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="6" t="s">
         <v>266</v>
       </c>
@@ -4677,10 +4686,10 @@
         <v>272</v>
       </c>
       <c r="C280" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="281" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="6" t="s">
         <v>266</v>
       </c>
@@ -4688,10 +4697,10 @@
         <v>273</v>
       </c>
       <c r="C281" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="282" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="6" t="s">
         <v>266</v>
       </c>
@@ -4699,10 +4708,10 @@
         <v>274</v>
       </c>
       <c r="C282" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="283" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="6" t="s">
         <v>266</v>
       </c>
@@ -4710,10 +4719,10 @@
         <v>275</v>
       </c>
       <c r="C283" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="284" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="6" t="s">
         <v>266</v>
       </c>
@@ -4721,10 +4730,10 @@
         <v>276</v>
       </c>
       <c r="C284" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="285" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="6" t="s">
         <v>266</v>
       </c>
@@ -4732,10 +4741,10 @@
         <v>277</v>
       </c>
       <c r="C285" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="286" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="6" t="s">
         <v>266</v>
       </c>
@@ -4743,10 +4752,10 @@
         <v>278</v>
       </c>
       <c r="C286" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="287" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="6" t="s">
         <v>266</v>
       </c>
@@ -4754,10 +4763,10 @@
         <v>279</v>
       </c>
       <c r="C287" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="288" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="6" t="s">
         <v>266</v>
       </c>
@@ -4765,10 +4774,10 @@
         <v>280</v>
       </c>
       <c r="C288" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="289" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="6" t="s">
         <v>266</v>
       </c>
@@ -4776,10 +4785,10 @@
         <v>281</v>
       </c>
       <c r="C289" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="290" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="6" t="s">
         <v>266</v>
       </c>
@@ -4787,10 +4796,10 @@
         <v>282</v>
       </c>
       <c r="C290" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="291" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="6" t="s">
         <v>266</v>
       </c>
@@ -4798,10 +4807,10 @@
         <v>283</v>
       </c>
       <c r="C291" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="292" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="6" t="s">
         <v>266</v>
       </c>
@@ -4809,10 +4818,10 @@
         <v>284</v>
       </c>
       <c r="C292" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="293" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="6" t="s">
         <v>266</v>
       </c>
@@ -4820,18 +4829,18 @@
         <v>285</v>
       </c>
       <c r="C293" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="294" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B294" s="10"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B294" s="11"/>
       <c r="C294" s="9"/>
     </row>
-    <row r="295" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B295" s="10"/>
+    <row r="295" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B295" s="11"/>
       <c r="C295" s="9"/>
     </row>
-    <row r="296" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="296" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="6" t="s">
         <v>286</v>
       </c>
@@ -4839,10 +4848,10 @@
         <v>287</v>
       </c>
       <c r="C296" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="297" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="6" t="s">
         <v>286</v>
       </c>
@@ -4850,10 +4859,10 @@
         <v>288</v>
       </c>
       <c r="C297" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="298" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="6" t="s">
         <v>286</v>
       </c>
@@ -4861,10 +4870,10 @@
         <v>289</v>
       </c>
       <c r="C298" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="299" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="6" t="s">
         <v>286</v>
       </c>
@@ -4872,10 +4881,10 @@
         <v>290</v>
       </c>
       <c r="C299" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="300" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="300" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="6" t="s">
         <v>286</v>
       </c>
@@ -4883,10 +4892,10 @@
         <v>291</v>
       </c>
       <c r="C300" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="301" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="301" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="6" t="s">
         <v>286</v>
       </c>
@@ -4894,10 +4903,10 @@
         <v>292</v>
       </c>
       <c r="C301" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="302" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="302" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="6" t="s">
         <v>286</v>
       </c>
@@ -4905,10 +4914,10 @@
         <v>293</v>
       </c>
       <c r="C302" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="303" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="303" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="6" t="s">
         <v>286</v>
       </c>
@@ -4916,10 +4925,10 @@
         <v>294</v>
       </c>
       <c r="C303" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="304" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="304" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="6" t="s">
         <v>286</v>
       </c>
@@ -4927,10 +4936,10 @@
         <v>295</v>
       </c>
       <c r="C304" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="305" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="305" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="6" t="s">
         <v>286</v>
       </c>
@@ -4938,10 +4947,10 @@
         <v>296</v>
       </c>
       <c r="C305" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="306" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="306" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="6" t="s">
         <v>286</v>
       </c>
@@ -4949,10 +4958,10 @@
         <v>297</v>
       </c>
       <c r="C306" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="307" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="307" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="6" t="s">
         <v>286</v>
       </c>
@@ -4960,10 +4969,10 @@
         <v>298</v>
       </c>
       <c r="C307" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="308" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="308" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="6" t="s">
         <v>286</v>
       </c>
@@ -4971,21 +4980,21 @@
         <v>299</v>
       </c>
       <c r="C308" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="309" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="309" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="B309" s="12" t="s">
+      <c r="B309" s="13" t="s">
         <v>300</v>
       </c>
       <c r="C309" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="310" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="310" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="6" t="s">
         <v>286</v>
       </c>
@@ -4993,10 +5002,10 @@
         <v>301</v>
       </c>
       <c r="C310" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="311" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="311" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="6" t="s">
         <v>286</v>
       </c>
@@ -5004,10 +5013,10 @@
         <v>302</v>
       </c>
       <c r="C311" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="312" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="312" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="6" t="s">
         <v>286</v>
       </c>
@@ -5015,10 +5024,10 @@
         <v>303</v>
       </c>
       <c r="C312" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="313" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="313" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="6" t="s">
         <v>286</v>
       </c>
@@ -5026,10 +5035,10 @@
         <v>304</v>
       </c>
       <c r="C313" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="314" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="314" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="6" t="s">
         <v>286</v>
       </c>
@@ -5037,10 +5046,10 @@
         <v>305</v>
       </c>
       <c r="C314" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="315" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="315" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="6" t="s">
         <v>286</v>
       </c>
@@ -5048,10 +5057,10 @@
         <v>306</v>
       </c>
       <c r="C315" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="316" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="316" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="6" t="s">
         <v>286</v>
       </c>
@@ -5059,10 +5068,10 @@
         <v>307</v>
       </c>
       <c r="C316" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="317" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="317" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="6" t="s">
         <v>286</v>
       </c>
@@ -5070,10 +5079,10 @@
         <v>308</v>
       </c>
       <c r="C317" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="318" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="318" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="6" t="s">
         <v>286</v>
       </c>
@@ -5081,10 +5090,10 @@
         <v>309</v>
       </c>
       <c r="C318" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="319" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="319" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="6" t="s">
         <v>286</v>
       </c>
@@ -5092,10 +5101,10 @@
         <v>310</v>
       </c>
       <c r="C319" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="320" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="320" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="6" t="s">
         <v>286</v>
       </c>
@@ -5103,10 +5112,10 @@
         <v>311</v>
       </c>
       <c r="C320" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="321" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="321" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="6" t="s">
         <v>286</v>
       </c>
@@ -5114,10 +5123,10 @@
         <v>312</v>
       </c>
       <c r="C321" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="322" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="322" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="6" t="s">
         <v>286</v>
       </c>
@@ -5125,10 +5134,10 @@
         <v>313</v>
       </c>
       <c r="C322" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="323" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="323" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="6" t="s">
         <v>286</v>
       </c>
@@ -5136,10 +5145,10 @@
         <v>314</v>
       </c>
       <c r="C323" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="324" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="324" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="6" t="s">
         <v>286</v>
       </c>
@@ -5147,10 +5156,10 @@
         <v>315</v>
       </c>
       <c r="C324" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="325" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="325" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="6" t="s">
         <v>286</v>
       </c>
@@ -5158,10 +5167,10 @@
         <v>316</v>
       </c>
       <c r="C325" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="326" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="326" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="6" t="s">
         <v>286</v>
       </c>
@@ -5169,10 +5178,10 @@
         <v>317</v>
       </c>
       <c r="C326" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="327" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="327" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="6" t="s">
         <v>286</v>
       </c>
@@ -5180,10 +5189,10 @@
         <v>318</v>
       </c>
       <c r="C327" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="328" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="328" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="6" t="s">
         <v>286</v>
       </c>
@@ -5191,10 +5200,10 @@
         <v>319</v>
       </c>
       <c r="C328" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="329" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="329" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="6" t="s">
         <v>286</v>
       </c>
@@ -5202,10 +5211,10 @@
         <v>320</v>
       </c>
       <c r="C329" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="330" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="330" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="6" t="s">
         <v>286</v>
       </c>
@@ -5213,10 +5222,10 @@
         <v>321</v>
       </c>
       <c r="C330" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="331" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="331" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="6" t="s">
         <v>286</v>
       </c>
@@ -5224,10 +5233,10 @@
         <v>322</v>
       </c>
       <c r="C331" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="332" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="332" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="6" t="s">
         <v>286</v>
       </c>
@@ -5235,10 +5244,10 @@
         <v>323</v>
       </c>
       <c r="C332" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="333" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="333" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="6" t="s">
         <v>286</v>
       </c>
@@ -5246,18 +5255,18 @@
         <v>324</v>
       </c>
       <c r="C333" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="334" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B334" s="10"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="334" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B334" s="11"/>
       <c r="C334" s="9"/>
     </row>
-    <row r="335" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B335" s="10"/>
+    <row r="335" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B335" s="11"/>
       <c r="C335" s="9"/>
     </row>
-    <row r="336" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="336" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="6" t="s">
         <v>325</v>
       </c>
@@ -5265,10 +5274,10 @@
         <v>326</v>
       </c>
       <c r="C336" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="337" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="337" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="6" t="s">
         <v>325</v>
       </c>
@@ -5276,10 +5285,10 @@
         <v>327</v>
       </c>
       <c r="C337" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="338" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="338" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="6" t="s">
         <v>325</v>
       </c>
@@ -5287,10 +5296,10 @@
         <v>328</v>
       </c>
       <c r="C338" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="339" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="339" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="6" t="s">
         <v>325</v>
       </c>
@@ -5298,10 +5307,10 @@
         <v>329</v>
       </c>
       <c r="C339" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="340" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="340" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="6" t="s">
         <v>325</v>
       </c>
@@ -5309,10 +5318,10 @@
         <v>330</v>
       </c>
       <c r="C340" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="341" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="341" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="6" t="s">
         <v>325</v>
       </c>
@@ -5320,10 +5329,10 @@
         <v>331</v>
       </c>
       <c r="C341" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="342" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="342" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="6" t="s">
         <v>325</v>
       </c>
@@ -5331,10 +5340,10 @@
         <v>332</v>
       </c>
       <c r="C342" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="343" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="343" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="6" t="s">
         <v>325</v>
       </c>
@@ -5342,21 +5351,21 @@
         <v>333</v>
       </c>
       <c r="C343" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="344" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="344" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="B344" s="12" t="s">
+      <c r="B344" s="13" t="s">
         <v>334</v>
       </c>
       <c r="C344" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="345" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="345" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="6" t="s">
         <v>325</v>
       </c>
@@ -5364,10 +5373,10 @@
         <v>335</v>
       </c>
       <c r="C345" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="346" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="346" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="6" t="s">
         <v>325</v>
       </c>
@@ -5375,10 +5384,10 @@
         <v>336</v>
       </c>
       <c r="C346" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="347" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="347" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="6" t="s">
         <v>325</v>
       </c>
@@ -5386,10 +5395,10 @@
         <v>337</v>
       </c>
       <c r="C347" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="348" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="348" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="6" t="s">
         <v>325</v>
       </c>
@@ -5397,10 +5406,10 @@
         <v>338</v>
       </c>
       <c r="C348" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="349" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="349" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="6" t="s">
         <v>325</v>
       </c>
@@ -5408,10 +5417,10 @@
         <v>339</v>
       </c>
       <c r="C349" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="350" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="350" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="6" t="s">
         <v>325</v>
       </c>
@@ -5419,10 +5428,10 @@
         <v>340</v>
       </c>
       <c r="C350" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="351" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="351" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="6" t="s">
         <v>325</v>
       </c>
@@ -5430,10 +5439,10 @@
         <v>341</v>
       </c>
       <c r="C351" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="352" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="352" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="6" t="s">
         <v>325</v>
       </c>
@@ -5441,10 +5450,10 @@
         <v>342</v>
       </c>
       <c r="C352" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="353" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="353" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="6" t="s">
         <v>325</v>
       </c>
@@ -5452,18 +5461,18 @@
         <v>343</v>
       </c>
       <c r="C353" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="354" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B354" s="10"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="354" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B354" s="11"/>
       <c r="C354" s="9"/>
     </row>
-    <row r="355" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B355" s="10"/>
+    <row r="355" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B355" s="11"/>
       <c r="C355" s="9"/>
     </row>
-    <row r="356" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="356" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="6" t="s">
         <v>344</v>
       </c>
@@ -5471,10 +5480,10 @@
         <v>345</v>
       </c>
       <c r="C356" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="357" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="357" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="6" t="s">
         <v>344</v>
       </c>
@@ -5482,10 +5491,10 @@
         <v>346</v>
       </c>
       <c r="C357" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="358" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="358" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="6" t="s">
         <v>344</v>
       </c>
@@ -5493,10 +5502,10 @@
         <v>347</v>
       </c>
       <c r="C358" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="359" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="359" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="6" t="s">
         <v>344</v>
       </c>
@@ -5504,10 +5513,10 @@
         <v>348</v>
       </c>
       <c r="C359" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="360" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="360" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="6" t="s">
         <v>344</v>
       </c>
@@ -5515,10 +5524,10 @@
         <v>349</v>
       </c>
       <c r="C360" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="361" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="361" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="6" t="s">
         <v>344</v>
       </c>
@@ -5526,10 +5535,10 @@
         <v>350</v>
       </c>
       <c r="C361" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="362" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="362" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="6" t="s">
         <v>344</v>
       </c>
@@ -5537,10 +5546,10 @@
         <v>351</v>
       </c>
       <c r="C362" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="363" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="363" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="6" t="s">
         <v>344</v>
       </c>
@@ -5548,10 +5557,10 @@
         <v>352</v>
       </c>
       <c r="C363" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="364" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="364" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="6" t="s">
         <v>344</v>
       </c>
@@ -5559,10 +5568,10 @@
         <v>353</v>
       </c>
       <c r="C364" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="365" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="365" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="6" t="s">
         <v>344</v>
       </c>
@@ -5570,10 +5579,10 @@
         <v>354</v>
       </c>
       <c r="C365" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="366" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="366" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="6" t="s">
         <v>344</v>
       </c>
@@ -5581,10 +5590,10 @@
         <v>355</v>
       </c>
       <c r="C366" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="367" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="367" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="6" t="s">
         <v>344</v>
       </c>
@@ -5592,10 +5601,10 @@
         <v>356</v>
       </c>
       <c r="C367" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="368" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="368" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="6" t="s">
         <v>344</v>
       </c>
@@ -5603,10 +5612,10 @@
         <v>357</v>
       </c>
       <c r="C368" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="369" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="369" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="6" t="s">
         <v>344</v>
       </c>
@@ -5614,10 +5623,10 @@
         <v>358</v>
       </c>
       <c r="C369" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="370" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="370" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="6" t="s">
         <v>344</v>
       </c>
@@ -5625,10 +5634,10 @@
         <v>359</v>
       </c>
       <c r="C370" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="371" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="371" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="6" t="s">
         <v>344</v>
       </c>
@@ -5636,10 +5645,10 @@
         <v>360</v>
       </c>
       <c r="C371" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="372" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="372" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="6" t="s">
         <v>344</v>
       </c>
@@ -5647,10 +5656,10 @@
         <v>361</v>
       </c>
       <c r="C372" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="373" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="373" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="6" t="s">
         <v>344</v>
       </c>
@@ -5658,10 +5667,10 @@
         <v>362</v>
       </c>
       <c r="C373" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="374" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="374" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="6" t="s">
         <v>344</v>
       </c>
@@ -5669,10 +5678,10 @@
         <v>363</v>
       </c>
       <c r="C374" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="375" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="375" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="6" t="s">
         <v>344</v>
       </c>
@@ -5680,10 +5689,10 @@
         <v>364</v>
       </c>
       <c r="C375" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="376" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="376" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="6" t="s">
         <v>344</v>
       </c>
@@ -5691,10 +5700,10 @@
         <v>365</v>
       </c>
       <c r="C376" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="377" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="377" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="6" t="s">
         <v>344</v>
       </c>
@@ -5702,10 +5711,10 @@
         <v>366</v>
       </c>
       <c r="C377" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="378" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="378" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="6" t="s">
         <v>344</v>
       </c>
@@ -5713,10 +5722,10 @@
         <v>367</v>
       </c>
       <c r="C378" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="379" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="379" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="6" t="s">
         <v>344</v>
       </c>
@@ -5724,10 +5733,10 @@
         <v>368</v>
       </c>
       <c r="C379" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="380" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="380" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="6" t="s">
         <v>344</v>
       </c>
@@ -5735,10 +5744,10 @@
         <v>369</v>
       </c>
       <c r="C380" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="381" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="381" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="6" t="s">
         <v>344</v>
       </c>
@@ -5746,10 +5755,10 @@
         <v>370</v>
       </c>
       <c r="C381" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="382" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="382" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="6" t="s">
         <v>344</v>
       </c>
@@ -5757,10 +5766,10 @@
         <v>371</v>
       </c>
       <c r="C382" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="383" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="383" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="6" t="s">
         <v>344</v>
       </c>
@@ -5768,10 +5777,10 @@
         <v>372</v>
       </c>
       <c r="C383" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="384" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="384" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="6" t="s">
         <v>344</v>
       </c>
@@ -5779,10 +5788,10 @@
         <v>373</v>
       </c>
       <c r="C384" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="385" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="385" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="6" t="s">
         <v>344</v>
       </c>
@@ -5790,10 +5799,10 @@
         <v>374</v>
       </c>
       <c r="C385" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="386" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="386" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="6" t="s">
         <v>344</v>
       </c>
@@ -5801,10 +5810,10 @@
         <v>375</v>
       </c>
       <c r="C386" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="387" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="387" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="6" t="s">
         <v>344</v>
       </c>
@@ -5812,10 +5821,10 @@
         <v>376</v>
       </c>
       <c r="C387" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="388" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="388" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="6" t="s">
         <v>344</v>
       </c>
@@ -5823,10 +5832,10 @@
         <v>377</v>
       </c>
       <c r="C388" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="389" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="389" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="6" t="s">
         <v>344</v>
       </c>
@@ -5834,10 +5843,10 @@
         <v>378</v>
       </c>
       <c r="C389" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="390" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="390" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="6" t="s">
         <v>344</v>
       </c>
@@ -5845,10 +5854,10 @@
         <v>378</v>
       </c>
       <c r="C390" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="391" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="391" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="6" t="s">
         <v>344</v>
       </c>
@@ -5856,10 +5865,10 @@
         <v>379</v>
       </c>
       <c r="C391" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="392" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="392" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="6" t="s">
         <v>344</v>
       </c>
@@ -5867,10 +5876,10 @@
         <v>380</v>
       </c>
       <c r="C392" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="393" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="393" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="6" t="s">
         <v>344</v>
       </c>
@@ -5878,10 +5887,10 @@
         <v>381</v>
       </c>
       <c r="C393" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="394" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="394" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="6" t="s">
         <v>344</v>
       </c>
@@ -5889,10 +5898,10 @@
         <v>382</v>
       </c>
       <c r="C394" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="395" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="395" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="6" t="s">
         <v>344</v>
       </c>
@@ -5900,10 +5909,10 @@
         <v>383</v>
       </c>
       <c r="C395" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="396" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="396" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="6" t="s">
         <v>344</v>
       </c>
@@ -5911,10 +5920,10 @@
         <v>384</v>
       </c>
       <c r="C396" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="397" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="397" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="6" t="s">
         <v>344</v>
       </c>
@@ -5922,10 +5931,10 @@
         <v>385</v>
       </c>
       <c r="C397" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="398" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="398" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="6" t="s">
         <v>344</v>
       </c>
@@ -5933,10 +5942,10 @@
         <v>386</v>
       </c>
       <c r="C398" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="399" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="399" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="6" t="s">
         <v>344</v>
       </c>
@@ -5944,18 +5953,18 @@
         <v>387</v>
       </c>
       <c r="C399" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="400" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B400" s="10"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="400" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B400" s="11"/>
       <c r="C400" s="9"/>
     </row>
-    <row r="401" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B401" s="10"/>
+    <row r="401" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B401" s="11"/>
       <c r="C401" s="9"/>
     </row>
-    <row r="402" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="402" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="6" t="s">
         <v>388</v>
       </c>
@@ -5963,10 +5972,10 @@
         <v>389</v>
       </c>
       <c r="C402" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="403" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="403" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="6" t="s">
         <v>388</v>
       </c>
@@ -5974,10 +5983,10 @@
         <v>390</v>
       </c>
       <c r="C403" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="404" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="404" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="6" t="s">
         <v>388</v>
       </c>
@@ -5985,10 +5994,10 @@
         <v>391</v>
       </c>
       <c r="C404" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="405" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="405" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="6" t="s">
         <v>388</v>
       </c>
@@ -5996,10 +6005,10 @@
         <v>90</v>
       </c>
       <c r="C405" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="406" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="406" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="6" t="s">
         <v>388</v>
       </c>
@@ -6007,10 +6016,10 @@
         <v>392</v>
       </c>
       <c r="C406" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="407" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="407" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="6" t="s">
         <v>388</v>
       </c>
@@ -6018,18 +6027,18 @@
         <v>393</v>
       </c>
       <c r="C407" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="408" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B408" s="10"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="408" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B408" s="11"/>
       <c r="C408" s="9"/>
     </row>
-    <row r="409" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B409" s="10"/>
+    <row r="409" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B409" s="11"/>
       <c r="C409" s="9"/>
     </row>
-    <row r="410" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="410" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="6" t="s">
         <v>394</v>
       </c>
@@ -6037,10 +6046,10 @@
         <v>395</v>
       </c>
       <c r="C410" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="411" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="411" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="6" t="s">
         <v>394</v>
       </c>
@@ -6048,10 +6057,10 @@
         <v>396</v>
       </c>
       <c r="C411" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="412" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="412" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="6" t="s">
         <v>394</v>
       </c>
@@ -6059,10 +6068,10 @@
         <v>397</v>
       </c>
       <c r="C412" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="413" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="413" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="6" t="s">
         <v>394</v>
       </c>
@@ -6070,10 +6079,10 @@
         <v>398</v>
       </c>
       <c r="C413" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="414" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="414" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="6" t="s">
         <v>394</v>
       </c>
@@ -6081,10 +6090,10 @@
         <v>399</v>
       </c>
       <c r="C414" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="415" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="415" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="6" t="s">
         <v>394</v>
       </c>
@@ -6092,10 +6101,10 @@
         <v>400</v>
       </c>
       <c r="C415" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="416" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="416" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="6" t="s">
         <v>394</v>
       </c>
@@ -6103,10 +6112,10 @@
         <v>401</v>
       </c>
       <c r="C416" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="417" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="417" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="6" t="s">
         <v>394</v>
       </c>
@@ -6114,10 +6123,10 @@
         <v>274</v>
       </c>
       <c r="C417" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="418" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="418" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="6" t="s">
         <v>394</v>
       </c>
@@ -6125,10 +6134,10 @@
         <v>402</v>
       </c>
       <c r="C418" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="419" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="419" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="6" t="s">
         <v>394</v>
       </c>
@@ -6136,10 +6145,10 @@
         <v>403</v>
       </c>
       <c r="C419" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="420" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="420" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="6" t="s">
         <v>394</v>
       </c>
@@ -6147,10 +6156,10 @@
         <v>404</v>
       </c>
       <c r="C420" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="421" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="421" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="6" t="s">
         <v>394</v>
       </c>
@@ -6158,10 +6167,10 @@
         <v>405</v>
       </c>
       <c r="C421" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="422" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="422" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="6" t="s">
         <v>394</v>
       </c>
@@ -6169,10 +6178,10 @@
         <v>406</v>
       </c>
       <c r="C422" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="423" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="423" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="6" t="s">
         <v>394</v>
       </c>
@@ -6180,10 +6189,10 @@
         <v>407</v>
       </c>
       <c r="C423" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="424" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="424" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="6" t="s">
         <v>394</v>
       </c>
@@ -6191,10 +6200,10 @@
         <v>408</v>
       </c>
       <c r="C424" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="425" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="425" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="6" t="s">
         <v>394</v>
       </c>
@@ -6202,10 +6211,10 @@
         <v>409</v>
       </c>
       <c r="C425" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="426" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="426" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="6" t="s">
         <v>394</v>
       </c>
@@ -6213,10 +6222,10 @@
         <v>410</v>
       </c>
       <c r="C426" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="427" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="427" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="6" t="s">
         <v>394</v>
       </c>
@@ -6224,10 +6233,10 @@
         <v>411</v>
       </c>
       <c r="C427" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="428" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="428" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="6" t="s">
         <v>394</v>
       </c>
@@ -6235,10 +6244,10 @@
         <v>412</v>
       </c>
       <c r="C428" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="429" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="429" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="6" t="s">
         <v>394</v>
       </c>
@@ -6246,10 +6255,10 @@
         <v>413</v>
       </c>
       <c r="C429" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="430" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="430" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="6" t="s">
         <v>394</v>
       </c>
@@ -6257,10 +6266,10 @@
         <v>414</v>
       </c>
       <c r="C430" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="431" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="431" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="6" t="s">
         <v>394</v>
       </c>
@@ -6268,10 +6277,10 @@
         <v>415</v>
       </c>
       <c r="C431" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="432" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="432" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="6" t="s">
         <v>394</v>
       </c>
@@ -6279,10 +6288,10 @@
         <v>416</v>
       </c>
       <c r="C432" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="433" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="433" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="6" t="s">
         <v>394</v>
       </c>
@@ -6290,10 +6299,10 @@
         <v>417</v>
       </c>
       <c r="C433" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="434" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="434" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="6" t="s">
         <v>394</v>
       </c>
@@ -6301,10 +6310,10 @@
         <v>418</v>
       </c>
       <c r="C434" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="435" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="435" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="6" t="s">
         <v>394</v>
       </c>
@@ -6312,10 +6321,10 @@
         <v>419</v>
       </c>
       <c r="C435" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="436" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="436" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="6" t="s">
         <v>394</v>
       </c>
@@ -6323,10 +6332,10 @@
         <v>420</v>
       </c>
       <c r="C436" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="437" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="437" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="6" t="s">
         <v>394</v>
       </c>
@@ -6334,10 +6343,10 @@
         <v>421</v>
       </c>
       <c r="C437" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="438" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="438" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="6" t="s">
         <v>394</v>
       </c>
@@ -6345,10 +6354,10 @@
         <v>422</v>
       </c>
       <c r="C438" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="439" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="439" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="6" t="s">
         <v>394</v>
       </c>
@@ -6356,10 +6365,10 @@
         <v>423</v>
       </c>
       <c r="C439" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="440" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="440" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="6" t="s">
         <v>394</v>
       </c>
@@ -6367,10 +6376,10 @@
         <v>424</v>
       </c>
       <c r="C440" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="441" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="441" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="6" t="s">
         <v>394</v>
       </c>
@@ -6378,10 +6387,10 @@
         <v>425</v>
       </c>
       <c r="C441" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="442" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="442" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="6" t="s">
         <v>394</v>
       </c>
@@ -6389,10 +6398,10 @@
         <v>426</v>
       </c>
       <c r="C442" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="443" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="443" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="6" t="s">
         <v>394</v>
       </c>
@@ -6400,10 +6409,10 @@
         <v>427</v>
       </c>
       <c r="C443" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="444" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="444" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="6" t="s">
         <v>394</v>
       </c>
@@ -6411,10 +6420,10 @@
         <v>428</v>
       </c>
       <c r="C444" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="445" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="445" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="6" t="s">
         <v>394</v>
       </c>
@@ -6422,10 +6431,10 @@
         <v>429</v>
       </c>
       <c r="C445" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="446" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="446" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="6" t="s">
         <v>394</v>
       </c>
@@ -6433,10 +6442,10 @@
         <v>430</v>
       </c>
       <c r="C446" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="447" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="447" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="6" t="s">
         <v>394</v>
       </c>
@@ -6444,10 +6453,10 @@
         <v>431</v>
       </c>
       <c r="C447" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="448" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="448" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="6" t="s">
         <v>394</v>
       </c>
@@ -6455,10 +6464,10 @@
         <v>432</v>
       </c>
       <c r="C448" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="449" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="449" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="6" t="s">
         <v>394</v>
       </c>
@@ -6466,10 +6475,10 @@
         <v>433</v>
       </c>
       <c r="C449" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="450" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="450" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="6" t="s">
         <v>394</v>
       </c>
@@ -6477,10 +6486,10 @@
         <v>434</v>
       </c>
       <c r="C450" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="451" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="451" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="6" t="s">
         <v>394</v>
       </c>
@@ -6488,10 +6497,10 @@
         <v>435</v>
       </c>
       <c r="C451" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="452" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="452" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="6" t="s">
         <v>394</v>
       </c>
@@ -6499,10 +6508,10 @@
         <v>436</v>
       </c>
       <c r="C452" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="453" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="453" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="6" t="s">
         <v>394</v>
       </c>
@@ -6510,10 +6519,10 @@
         <v>437</v>
       </c>
       <c r="C453" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="454" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="454" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="6" t="s">
         <v>394</v>
       </c>
@@ -6521,10 +6530,10 @@
         <v>438</v>
       </c>
       <c r="C454" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="455" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="455" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="6" t="s">
         <v>394</v>
       </c>
@@ -6532,10 +6541,10 @@
         <v>439</v>
       </c>
       <c r="C455" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="456" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="456" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="6" t="s">
         <v>394</v>
       </c>
@@ -6543,10 +6552,10 @@
         <v>440</v>
       </c>
       <c r="C456" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="457" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="457" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="6" t="s">
         <v>394</v>
       </c>
@@ -6554,10 +6563,10 @@
         <v>441</v>
       </c>
       <c r="C457" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="458" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="458" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="6" t="s">
         <v>394</v>
       </c>
@@ -6565,10 +6574,10 @@
         <v>442</v>
       </c>
       <c r="C458" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="459" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="459" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="6" t="s">
         <v>394</v>
       </c>
@@ -6576,10 +6585,10 @@
         <v>443</v>
       </c>
       <c r="C459" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="460" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="460" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="6" t="s">
         <v>394</v>
       </c>
@@ -6587,10 +6596,10 @@
         <v>444</v>
       </c>
       <c r="C460" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="461" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="461" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="6" t="s">
         <v>394</v>
       </c>
@@ -6598,10 +6607,10 @@
         <v>445</v>
       </c>
       <c r="C461" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="462" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="462" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="6" t="s">
         <v>394</v>
       </c>
@@ -6609,10 +6618,10 @@
         <v>446</v>
       </c>
       <c r="C462" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="463" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="463" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="6" t="s">
         <v>394</v>
       </c>
@@ -6620,10 +6629,10 @@
         <v>447</v>
       </c>
       <c r="C463" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="464" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="464" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="6" t="s">
         <v>394</v>
       </c>
@@ -6631,10 +6640,10 @@
         <v>448</v>
       </c>
       <c r="C464" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="465" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="465" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="6" t="s">
         <v>394</v>
       </c>
@@ -6642,10 +6651,10 @@
         <v>449</v>
       </c>
       <c r="C465" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="466" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="466" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="6" t="s">
         <v>394</v>
       </c>
@@ -6653,10 +6662,10 @@
         <v>450</v>
       </c>
       <c r="C466" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="467" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="467" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="6" t="s">
         <v>394</v>
       </c>
@@ -6664,10 +6673,10 @@
         <v>451</v>
       </c>
       <c r="C467" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="468" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="468" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="6" t="s">
         <v>394</v>
       </c>
@@ -6675,10 +6684,10 @@
         <v>452</v>
       </c>
       <c r="C468" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="469" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="469" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="6" t="s">
         <v>394</v>
       </c>
@@ -6686,30 +6695,30 @@
         <v>453</v>
       </c>
       <c r="C469" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="470" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B470" s="10"/>
-      <c r="C470" s="13"/>
-    </row>
-    <row r="471" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="470" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B470" s="11"/>
+      <c r="C470" s="14"/>
+    </row>
+    <row r="471" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="6"/>
-      <c r="B471" s="10"/>
-      <c r="C471" s="13"/>
-    </row>
-    <row r="472" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B471" s="11"/>
+      <c r="C471" s="14"/>
+    </row>
+    <row r="472" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="6" t="s">
         <v>454</v>
       </c>
       <c r="B472" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="C472" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="473" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C472" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="473" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="6" t="s">
         <v>454</v>
       </c>
@@ -6717,29 +6726,29 @@
         <v>456</v>
       </c>
       <c r="C473" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="474" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="474" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="6" t="s">
         <v>454</v>
       </c>
       <c r="B474" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="C474" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="475" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C474" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="475" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="6" t="s">
         <v>454</v>
       </c>
       <c r="B475" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="C475" s="13" t="s">
-        <v>5</v>
+      <c r="C475" s="14" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6749,8 +6758,8 @@
       <c r="B476" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="C476" s="13" t="s">
-        <v>5</v>
+      <c r="C476" s="14" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6760,8 +6769,8 @@
       <c r="B477" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="C477" s="13" t="s">
-        <v>5</v>
+      <c r="C477" s="14" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6771,30 +6780,30 @@
       <c r="B478" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="C478" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="479" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C478" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="479" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="6" t="s">
         <v>454</v>
       </c>
       <c r="B479" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="C479" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="480" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C479" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="480" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="6" t="s">
         <v>454</v>
       </c>
       <c r="B480" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="C480" s="13" t="s">
-        <v>5</v>
+      <c r="C480" s="14" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6805,29 +6814,29 @@
         <v>464</v>
       </c>
       <c r="C481" s="9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="482" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A482" s="14" t="s">
+      <c r="A482" s="15" t="s">
         <v>465</v>
       </c>
       <c r="B482" s="0" t="s">
         <v>466</v>
       </c>
-      <c r="C482" s="15" t="s">
-        <v>5</v>
+      <c r="C482" s="16" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="483" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A483" s="14" t="s">
+      <c r="A483" s="15" t="s">
         <v>465</v>
       </c>
       <c r="B483" s="0" t="s">
         <v>467</v>
       </c>
       <c r="C483" s="9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
